--- a/excel call/TestExcel_Auto.xlsx
+++ b/excel call/TestExcel_Auto.xlsx
@@ -13,8 +13,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1:haha
+2:xixi
+3:gga</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -28,32 +66,82 @@
     <t>Remark</t>
   </si>
   <si>
+    <t>新手村引导-1</t>
+  </si>
+  <si>
     <t>内容</t>
   </si>
   <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>VillageHead-VillageGuide-1</t>
+  </si>
+  <si>
+    <t>["你好,勇士,我在此地已等候你多时了,让我这个老头等这么久,你可真会耍大牌啊",
+"[/p]老前辈不好意思,来的路上碰到了成群的史莱姆不得不绕了点路",
+"行了,这次召唤你过来是有任务给你的,你也已经到了离开村子的年龄了,现在你需要打败这几只史莱姆"]</t>
+  </si>
+  <si>
     <t>跳转到ID</t>
   </si>
   <si>
-    <t>Content</t>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>条件</t>
   </si>
   <si>
     <t>JumpToId</t>
   </si>
   <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>VillageHead-Quest-VillageGuide-1</t>
-  </si>
-  <si>
-    <t>新手村引导-1</t>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>{Item[string];Count[int]}</t>
+  </si>
+  <si>
+    <t>{Data[string[]]}</t>
   </si>
   <si>
     <t>VillageHead-Quest-VillageGuide-2</t>
   </si>
   <si>
-    <t>["你好,勇士,我在此地已等候你多时了,让我这个老头等这么久,你可真会耍大牌啊",
-"[/p]卧槽"]</t>
+    <t>[{"Data":[]}]</t>
+  </si>
+  <si>
+    <t>VillageHead-OK-1</t>
+  </si>
+  <si>
+    <t>新手村支线-1</t>
+  </si>
+  <si>
+    <t>["又见面了,这次帮我杀10只史莱姆吧"]</t>
+  </si>
+  <si>
+    <t>[
+{"Data":["1","&gt;","1"]},
+{"Data":["1","&lt;","5"]},
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Item":"1","Count":20},
+{"Item":"2","Count":10},
+{"Item":"3","Count":5},
+{"Item":"4","Count":5}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +163,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,80 +511,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="86.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel call/TestExcel_Auto.xlsx
+++ b/excel call/TestExcel_Auto.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -30,20 +30,24 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>1:道具[Props]
+2:装备[Equip]</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-1:haha
-2:xixi
-3:gga</t>
+          <t>1:道具[Props]
+2:弓[Ancher]</t>
         </r>
       </text>
     </comment>
@@ -52,97 +56,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型(1级类型)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型(2级类型)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性(Attribute为加成类型,Addition为加成数值)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemAttribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>新手村引导-1</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>VillageHead-VillageGuide-1</t>
-  </si>
-  <si>
-    <t>["你好,勇士,我在此地已等候你多时了,让我这个老头等这么久,你可真会耍大牌啊",
-"[/p]老前辈不好意思,来的路上碰到了成群的史莱姆不得不绕了点路",
-"行了,这次召唤你过来是有任务给你的,你也已经到了离开村子的年龄了,现在你需要打败这几只史莱姆"]</t>
-  </si>
-  <si>
-    <t>跳转到ID</t>
-  </si>
-  <si>
-    <t>奖励</t>
-  </si>
-  <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>条件</t>
-  </si>
-  <si>
-    <t>JumpToId</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>{Item[string];Count[int]}</t>
-  </si>
-  <si>
-    <t>{Data[string[]]}</t>
-  </si>
-  <si>
-    <t>VillageHead-Quest-VillageGuide-2</t>
-  </si>
-  <si>
-    <t>[{"Data":[]}]</t>
-  </si>
-  <si>
-    <t>VillageHead-OK-1</t>
-  </si>
-  <si>
-    <t>新手村支线-1</t>
-  </si>
-  <si>
-    <t>["又见面了,这次帮我杀10只史莱姆吧"]</t>
-  </si>
-  <si>
-    <t>[
-{"Data":["1","&gt;","1"]},
-{"Data":["1","&lt;","5"]},
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"Item":"1","Count":20},
-{"Item":"2","Count":10},
-{"Item":"3","Count":5},
-{"Item":"4","Count":5}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Attribute[int];Addition[int]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Attribute":1,"Addition":1}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Attribute":2,"Addition":1}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微小的生命药剂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TinyHpPharmacy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Attribute":6,"Addition":50}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微小的魔法药剂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TinyMpPharmacy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Attribute":7,"Addition":30}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇魂弓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZhenHunGong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model/Equip/Weapon/Bow/ZhenHunGong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -165,6 +217,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -172,12 +225,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,13 +252,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,124 +561,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="30.375" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="1" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="5" width="27.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>CONCATENATE("ui://SuperHeroUI/IT_",B4)</f>
+        <v>ui://SuperHeroUI/IT_经验值</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ref="G5:G8" si="0">CONCATENATE("ui://SuperHeroUI/IT_",B5)</f>
+        <v>ui://SuperHeroUI/IT_金币</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ui://SuperHeroUI/IT_微小的生命药剂</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ui://SuperHeroUI/IT_微小的魔法药剂</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ui://SuperHeroUI/IT_镇魂弓</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
